--- a/Application/Setubi/教育用ドキュメント/教育用ドキュメント.xlsx
+++ b/Application/Setubi/教育用ドキュメント/教育用ドキュメント.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12570" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12570" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="12" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="725">
   <si>
     <t>C:\RmenuSVN3\Rmenu\Application\Setubi\Workshop\Html\Sample_ClassMainte</t>
     <phoneticPr fontId="1"/>
@@ -95,27 +95,6 @@
   </si>
   <si>
     <t>convertTable["programName"]  = ["Sample_ClassMainte",   "XX_EquipmentType"]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロジェクト名</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プログラム名</t>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DB名</t>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -151,17 +130,6 @@
     <t xml:space="preserve">                      &lt;/li&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">                        &lt;button name="Setubi/Html/Apps/XX_EquipmentType"     class="btn color4 width400 メニュー" type="button"&gt;実習（設備タイプ　一覧表）&lt;/button&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サンプルプログラムがそのまま実行されます。</t>
-    <rPh sb="14" eb="16">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サンプル（区分）</t>
   </si>
   <si>
@@ -365,10 +333,6 @@
     <t xml:space="preserve">      }</t>
   </si>
   <si>
-    <t xml:space="preserve">                        &lt;button name=""     class="btn color4 width400 メニュー" type="button"&gt;　&lt;/button&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>変更前</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
@@ -1404,67 +1368,6 @@
   </si>
   <si>
     <t xml:space="preserve">      this.model.on次画面表示("R_TypeWork", "execute");</t>
-  </si>
-  <si>
-    <t>変更後</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>１．５　設備タイプのコントローラの訂正　（C:\RmenuSVN3\Rmenu\Application\Setubi\Html\Apps\XX_EquipmentType\XX_EquipmentType.controller.js）</t>
-    <rPh sb="4" eb="6">
-      <t>セツビ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>テイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>１．６　実習（設備タイプ一覧表　→　設備タイプ別作業）の実行</t>
-    <rPh sb="18" eb="20">
-      <t>セツビ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      this.model.saveSessionStorageOfNextMode("XX_EquipmentTypeWork", "execute");</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      this.model.on次画面表示("XX_EquipmentTypeWork", "execute");</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変更前　（３８行目～４１行目）</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ギョウメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>練習　設備タイプ別作業</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>タイトルを変更（６行目と５８行目）し、プログラムを実行する。</t>
@@ -4736,6 +4639,106 @@
     </rPh>
     <rPh sb="44" eb="45">
       <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                        &lt;button name=""     class="btn color4 rmenu-nav-menu-btn メニュー" type="button"&gt;　&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        &lt;button name="Setubi/Html/Apps/XX_EquipmentType"     class="btn color4 rmenu-nav-menu-btn メニュー" type="button"&gt;実習（設備タイプ　一覧表）&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>C:\RmenuSVN3\Rmenu\Application\Setubi\Json\Apps\</t>
+  </si>
+  <si>
+    <t>C:\RmenuSVN3\Rmenu\Application\Setubi\Server\Apps\</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>１．５　XX_EquipmentTypeのcontroller.js修正（C:\RmenuSVN3\Rmenu\Application\Setubi\Html\Apps\XX_EquipmentType\XX_EquipmentType.controller.js）</t>
+    <rPh sb="34" eb="36">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更後</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      this.model.saveSessionStorageOfNextMode("XX_EquipmentTypeWork", "execute");</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      this.model.on次画面表示("XX_EquipmentTypeWork", "execute");</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更前　（３７行目～４１行目）</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．６　設備タイプ別作業の実行</t>
+    <rPh sb="9" eb="10">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー→実習（設備タイプ　一覧表）→作業１行目をチェック後、設備タイプ別作業ボタンをクリック</t>
+    <rPh sb="5" eb="7">
+      <t>ジッシュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セツビ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ギョウメ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セツビ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サギョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5025,46 +5028,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10267951" y="323850"/>
-          <a:ext cx="8267700" cy="5153025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -5084,7 +5047,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -5094,6 +5057,46 @@
         <a:xfrm>
           <a:off x="1304925" y="342900"/>
           <a:ext cx="8267701" cy="5153026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10277475" y="361950"/>
+          <a:ext cx="8229600" cy="5133976"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5396,7 +5399,7 @@
   </sheetPr>
   <dimension ref="A3:A36"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -5404,12 +5407,12 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -5475,118 +5478,118 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="G18" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="5" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="4" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -5597,10 +5600,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="B33" s="4" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -5611,45 +5614,45 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="4" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -5659,10 +5662,10 @@
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="4" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -5672,62 +5675,62 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="B60" s="4" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -5744,7 +5747,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="B61" s="4" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -5761,7 +5764,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="B62" s="4" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -5778,11 +5781,11 @@
     </row>
     <row r="64" spans="1:14">
       <c r="B64" s="4" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -5792,11 +5795,11 @@
     </row>
     <row r="65" spans="1:9">
       <c r="B65" s="4" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -5806,112 +5809,112 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="B90" s="4" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -5922,7 +5925,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="B91" s="4" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -5933,72 +5936,72 @@
     </row>
     <row r="93" spans="1:8">
       <c r="B93" s="5" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="B109" s="4" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -6010,7 +6013,7 @@
     </row>
     <row r="110" spans="1:9">
       <c r="B110" s="4" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -6022,12 +6025,12 @@
     </row>
     <row r="113" spans="1:13">
       <c r="B113" s="5" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="C114" s="4" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -6040,7 +6043,7 @@
     </row>
     <row r="115" spans="1:13">
       <c r="C115" s="4" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -6053,7 +6056,7 @@
     </row>
     <row r="117" spans="1:13">
       <c r="C117" s="4" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="118" spans="1:13">
       <c r="C118" s="4" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -6083,93 +6086,93 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="B133" s="4" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="C133" s="4"/>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="B142" s="4" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -6182,7 +6185,7 @@
     </row>
     <row r="143" spans="1:10">
       <c r="B143" s="4" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -6195,37 +6198,37 @@
     </row>
     <row r="146" spans="1:11">
       <c r="A146" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="153" spans="1:11">
       <c r="B153" s="4" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
@@ -6239,7 +6242,7 @@
     </row>
     <row r="154" spans="1:11">
       <c r="B154" s="4" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
@@ -6253,42 +6256,42 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="B165" s="4" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
@@ -6299,11 +6302,11 @@
     </row>
     <row r="167" spans="1:8">
       <c r="B167" s="4" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
@@ -6312,11 +6315,11 @@
     </row>
     <row r="168" spans="1:8">
       <c r="B168" s="4" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
@@ -6325,11 +6328,11 @@
     </row>
     <row r="169" spans="1:8">
       <c r="B169" s="4" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
@@ -6338,61 +6341,61 @@
     </row>
     <row r="172" spans="1:8">
       <c r="B172" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="B173" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="B175" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="D175" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="B176" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="D176" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="B177" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="D177" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="B186" s="4" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
@@ -6401,11 +6404,11 @@
     </row>
     <row r="188" spans="1:8">
       <c r="B188" s="4" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
@@ -6414,11 +6417,11 @@
     </row>
     <row r="189" spans="1:8">
       <c r="B189" s="4" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
@@ -6427,11 +6430,11 @@
     </row>
     <row r="190" spans="1:8">
       <c r="B190" s="4" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
@@ -6440,85 +6443,85 @@
     </row>
     <row r="192" spans="1:8">
       <c r="B192" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="B193" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="B195" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="D195" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="B196" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="D196" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="B197" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="D197" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="B208" s="5" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
     </row>
     <row r="210" spans="1:12">
       <c r="B210" s="4" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
@@ -6527,11 +6530,11 @@
     </row>
     <row r="211" spans="1:12">
       <c r="B211" s="4" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
@@ -6540,11 +6543,11 @@
     </row>
     <row r="212" spans="1:12">
       <c r="B212" s="4" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
@@ -6553,98 +6556,98 @@
     </row>
     <row r="217" spans="1:12">
       <c r="A217" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="218" spans="1:12">
       <c r="A218" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="L218" s="5" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
     </row>
     <row r="219" spans="1:12">
       <c r="A219" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
     </row>
     <row r="220" spans="1:12">
       <c r="A220" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
     </row>
     <row r="221" spans="1:12">
       <c r="A221" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
     </row>
     <row r="222" spans="1:12">
       <c r="A222" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
     </row>
     <row r="223" spans="1:12">
       <c r="A223" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
     </row>
     <row r="224" spans="1:12">
       <c r="A224" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="225" spans="1:19">
       <c r="A225" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
     </row>
     <row r="226" spans="1:19">
       <c r="A226" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="227" spans="1:19">
       <c r="A227" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
     </row>
     <row r="228" spans="1:19">
       <c r="A228" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="229" spans="1:19">
       <c r="A229" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
     </row>
     <row r="230" spans="1:19">
       <c r="A230" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
     </row>
     <row r="231" spans="1:19">
       <c r="A231" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="232" spans="1:19">
       <c r="A232" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="236" spans="1:19">
       <c r="A236" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="237" spans="1:19">
       <c r="A237" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="L237" s="4" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="M237" s="4"/>
       <c r="N237" s="4"/>
@@ -6656,10 +6659,10 @@
     </row>
     <row r="238" spans="1:19">
       <c r="A238" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="L238" s="4" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="M238" s="4"/>
       <c r="N238" s="4"/>
@@ -6671,10 +6674,10 @@
     </row>
     <row r="239" spans="1:19">
       <c r="A239" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="L239" s="4" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="M239" s="4"/>
       <c r="N239" s="4"/>
@@ -6686,70 +6689,70 @@
     </row>
     <row r="240" spans="1:19">
       <c r="A240" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
     </row>
     <row r="241" spans="1:19">
       <c r="A241" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
     </row>
     <row r="242" spans="1:19">
       <c r="A242" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
     </row>
     <row r="243" spans="1:19">
       <c r="A243" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="244" spans="1:19">
       <c r="A244" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="245" spans="1:19">
       <c r="A245" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="246" spans="1:19">
       <c r="A246" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="247" spans="1:19">
       <c r="A247" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
     </row>
     <row r="248" spans="1:19">
       <c r="A248" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
     </row>
     <row r="249" spans="1:19">
       <c r="A249" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="250" spans="1:19">
       <c r="A250" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="254" spans="1:19">
       <c r="A254" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="255" spans="1:19">
       <c r="A255" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="L255" s="4" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="M255" s="4"/>
       <c r="N255" s="4"/>
@@ -6761,50 +6764,50 @@
     </row>
     <row r="256" spans="1:19">
       <c r="A256" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
     </row>
     <row r="257" spans="1:18">
       <c r="A257" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
     </row>
     <row r="258" spans="1:18">
       <c r="A258" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
     </row>
     <row r="259" spans="1:18">
       <c r="A259" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
     </row>
     <row r="260" spans="1:18">
       <c r="A260" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="261" spans="1:18">
       <c r="A261" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
     </row>
     <row r="262" spans="1:18">
       <c r="A262" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="266" spans="1:18">
       <c r="A266" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="267" spans="1:18">
       <c r="A267" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="L267" s="4" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="M267" s="4"/>
       <c r="N267" s="4"/>
@@ -6815,10 +6818,10 @@
     </row>
     <row r="268" spans="1:18">
       <c r="A268" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="L268" s="4" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="M268" s="4"/>
       <c r="N268" s="4"/>
@@ -6829,10 +6832,10 @@
     </row>
     <row r="269" spans="1:18">
       <c r="A269" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="L269" s="4" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="M269" s="4"/>
       <c r="N269" s="4"/>
@@ -6843,15 +6846,15 @@
     </row>
     <row r="270" spans="1:18">
       <c r="A270" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
     </row>
     <row r="271" spans="1:18">
       <c r="A271" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="L271" s="4" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="M271" s="4"/>
       <c r="N271" s="4"/>
@@ -6861,95 +6864,95 @@
     </row>
     <row r="272" spans="1:18">
       <c r="A272" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="291" spans="1:16">
       <c r="A291" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="292" spans="1:16">
       <c r="A292" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="L292" s="4" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="M292" s="4"/>
       <c r="N292" s="4"/>
@@ -6958,80 +6961,80 @@
     </row>
     <row r="293" spans="1:16">
       <c r="A293" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
     </row>
     <row r="294" spans="1:16">
       <c r="A294" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
     </row>
     <row r="295" spans="1:16">
       <c r="A295" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
     </row>
     <row r="296" spans="1:16">
       <c r="A296" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
     </row>
     <row r="297" spans="1:16">
       <c r="A297" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="298" spans="1:16">
       <c r="A298" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
     </row>
     <row r="299" spans="1:16">
       <c r="A299" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="300" spans="1:16">
       <c r="A300" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
     </row>
     <row r="301" spans="1:16">
       <c r="A301" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="302" spans="1:16">
       <c r="A302" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
     </row>
     <row r="303" spans="1:16">
       <c r="A303" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
     </row>
     <row r="304" spans="1:16">
       <c r="A304" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="305" spans="1:20">
       <c r="A305" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="309" spans="1:20">
       <c r="A309" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="310" spans="1:20">
       <c r="A310" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="L310" s="4" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="M310" s="4"/>
       <c r="N310" s="4"/>
@@ -7044,110 +7047,110 @@
     </row>
     <row r="311" spans="1:20">
       <c r="A311" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
     </row>
     <row r="312" spans="1:20">
       <c r="A312" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
     </row>
     <row r="313" spans="1:20">
       <c r="A313" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
     </row>
     <row r="314" spans="1:20">
       <c r="A314" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
     </row>
     <row r="315" spans="1:20">
       <c r="A315" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="316" spans="1:20">
       <c r="A316" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
     </row>
     <row r="317" spans="1:20">
       <c r="A317" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="318" spans="1:20">
       <c r="A318" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
     </row>
     <row r="319" spans="1:20">
       <c r="A319" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="320" spans="1:20">
       <c r="A320" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
     </row>
     <row r="321" spans="1:19">
       <c r="A321" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
     </row>
     <row r="322" spans="1:19">
       <c r="A322" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="323" spans="1:19">
       <c r="A323" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="324" spans="1:19">
       <c r="A324" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
     </row>
     <row r="325" spans="1:19">
       <c r="A325" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="326" spans="1:19">
       <c r="A326" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
     </row>
     <row r="327" spans="1:19">
       <c r="A327" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
     </row>
     <row r="328" spans="1:19">
       <c r="A328" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="329" spans="1:19">
       <c r="A329" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="334" spans="1:19">
       <c r="A334" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="335" spans="1:19">
       <c r="A335" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="L335" s="4" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="M335" s="4"/>
       <c r="N335" s="4"/>
@@ -7159,10 +7162,10 @@
     </row>
     <row r="336" spans="1:19">
       <c r="A336" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="L336" s="4" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="M336" s="4"/>
       <c r="N336" s="4"/>
@@ -7174,120 +7177,120 @@
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
     </row>
     <row r="353" spans="1:22">
       <c r="A353" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
     </row>
     <row r="354" spans="1:22">
       <c r="A354" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
     </row>
     <row r="355" spans="1:22">
       <c r="A355" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
     </row>
     <row r="356" spans="1:22">
       <c r="A356" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="357" spans="1:22">
       <c r="A357" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="361" spans="1:22">
       <c r="A361" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="362" spans="1:22">
       <c r="A362" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="L362" s="4" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="M362" s="4"/>
       <c r="N362" s="4"/>
@@ -7301,10 +7304,10 @@
     </row>
     <row r="363" spans="1:22">
       <c r="A363" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="L363" s="4" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="M363" s="4"/>
       <c r="N363" s="4"/>
@@ -7318,15 +7321,15 @@
     </row>
     <row r="364" spans="1:22">
       <c r="A364" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
     </row>
     <row r="365" spans="1:22">
       <c r="A365" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="L365" s="4" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="M365" s="4"/>
       <c r="N365" s="4"/>
@@ -7341,10 +7344,10 @@
     </row>
     <row r="366" spans="1:22">
       <c r="A366" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="L366" s="4" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="M366" s="4"/>
       <c r="N366" s="4"/>
@@ -7359,100 +7362,100 @@
     </row>
     <row r="367" spans="1:22">
       <c r="A367" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
     </row>
     <row r="368" spans="1:22">
       <c r="A368" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="387" spans="1:21">
       <c r="A387" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="388" spans="1:21">
       <c r="A388" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="L388" s="4" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="M388" s="4"/>
       <c r="N388" s="4"/>
@@ -7465,10 +7468,10 @@
     </row>
     <row r="389" spans="1:21">
       <c r="A389" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="L389" s="4" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="M389" s="4"/>
       <c r="N389" s="4"/>
@@ -7481,15 +7484,15 @@
     </row>
     <row r="390" spans="1:21">
       <c r="A390" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
     </row>
     <row r="391" spans="1:21">
       <c r="A391" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="L391" s="4" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="M391" s="4"/>
       <c r="N391" s="4"/>
@@ -7503,57 +7506,57 @@
     </row>
     <row r="392" spans="1:21">
       <c r="A392" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
     </row>
     <row r="393" spans="1:21">
       <c r="A393" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
     </row>
     <row r="394" spans="1:21">
       <c r="A394" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
     </row>
     <row r="395" spans="1:21">
       <c r="A395" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
     </row>
     <row r="396" spans="1:21">
       <c r="A396" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="397" spans="1:21">
       <c r="A397" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
     </row>
     <row r="398" spans="1:21">
       <c r="A398" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="399" spans="1:21">
       <c r="A399" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
     </row>
     <row r="400" spans="1:21">
       <c r="A400" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -7609,28 +7612,28 @@
   </sheetPr>
   <dimension ref="A2:Z980"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="C241" sqref="C241"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="3:16">
       <c r="C2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="B36" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -7674,10 +7677,10 @@
     </row>
     <row r="43" spans="1:17">
       <c r="B43" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
@@ -7686,7 +7689,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="M44" s="4" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
@@ -7698,7 +7701,7 @@
         <v>5</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
@@ -7710,7 +7713,7 @@
         <v>6</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
@@ -7722,7 +7725,7 @@
         <v>7</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
@@ -7746,7 +7749,7 @@
     </row>
     <row r="52" spans="2:11">
       <c r="B52" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="53" spans="2:11">
@@ -7766,12 +7769,12 @@
     </row>
     <row r="59" spans="2:11">
       <c r="B59" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="60" spans="2:11">
       <c r="C60" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" t="s">
@@ -7783,7 +7786,7 @@
     </row>
     <row r="62" spans="2:11">
       <c r="C62" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" t="s">
@@ -7795,7 +7798,7 @@
     </row>
     <row r="64" spans="2:11">
       <c r="C64" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" t="s">
@@ -7804,52 +7807,52 @@
     </row>
     <row r="67" spans="2:5">
       <c r="B67" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="68" spans="2:5">
       <c r="C68" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
     </row>
     <row r="69" spans="2:5">
       <c r="C69" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="2:5">
       <c r="C70" t="s">
-        <v>89</v>
+        <v>713</v>
       </c>
     </row>
     <row r="71" spans="2:5">
       <c r="C71" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="2:5">
       <c r="C73" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="2:5">
       <c r="C74" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="2:5">
       <c r="C75" t="s">
-        <v>26</v>
+        <v>714</v>
       </c>
     </row>
     <row r="76" spans="2:5">
       <c r="C76" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="2:5">
       <c r="B78" s="4" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -7857,659 +7860,659 @@
     </row>
     <row r="79" spans="2:5">
       <c r="C79" s="3" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="B83" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="B84" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="C85" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="D87" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F87" t="s">
         <v>9</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="B90" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="C91" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="D92" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="D93" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="D94" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="C96" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="D97" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="D98" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="D99" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="2:4">
       <c r="B102" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="C103" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="D104" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="2:4">
       <c r="D105" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="2:4">
       <c r="D106" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="2:4">
       <c r="D107" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="D108" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" spans="2:4">
       <c r="D109" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="2:4">
       <c r="D110" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="2:4">
       <c r="D111" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="2:4">
       <c r="D112" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="2:4">
       <c r="D113" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="2:4">
       <c r="C115" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="2:4">
       <c r="D116" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117" spans="2:4">
       <c r="D117" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" spans="2:4">
       <c r="D118" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119" spans="2:4">
       <c r="D119" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120" spans="2:4">
       <c r="D120" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" spans="2:4">
       <c r="D121" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="2:4">
       <c r="D122" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="123" spans="2:4">
       <c r="D123" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="2:4">
       <c r="D124" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127" spans="2:4">
       <c r="B127" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="128" spans="2:4">
       <c r="C128" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
     </row>
     <row r="129" spans="4:4">
       <c r="D129" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="4:4">
       <c r="D130" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131" spans="4:4">
       <c r="D131" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132" spans="4:4">
       <c r="D132" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="4:4">
       <c r="D133" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="4:4">
       <c r="D134" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="4:4">
       <c r="D135" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="4:4">
       <c r="D136" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="4:4">
       <c r="D137" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="138" spans="4:4">
       <c r="D138" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="139" spans="4:4">
       <c r="D139" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="4:4">
       <c r="D140" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="141" spans="4:4">
       <c r="D141" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="142" spans="4:4">
       <c r="D142" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="143" spans="4:4">
       <c r="D143" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="144" spans="4:4">
       <c r="D144" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145" spans="3:17">
       <c r="D145" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146" spans="3:17">
       <c r="D146" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="147" spans="3:17">
       <c r="D147" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="148" spans="3:17">
       <c r="D148" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="149" spans="3:17">
       <c r="D149" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="151" spans="3:17">
       <c r="C151" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="152" spans="3:17">
       <c r="D152" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="153" spans="3:17">
       <c r="D153" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154" spans="3:17">
       <c r="D154" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="155" spans="3:17">
       <c r="D155" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="156" spans="3:17">
       <c r="D156" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="157" spans="3:17">
       <c r="D157" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="158" spans="3:17">
       <c r="D158" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="159" spans="3:17">
       <c r="D159" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="160" spans="3:17">
       <c r="D160" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Q160" s="5" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
     </row>
     <row r="161" spans="2:17">
       <c r="D161" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="162" spans="2:17">
       <c r="D162" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="163" spans="2:17">
       <c r="D163" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="Q163" s="5" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
     </row>
     <row r="164" spans="2:17">
       <c r="D164" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="165" spans="2:17">
       <c r="D165" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="166" spans="2:17">
       <c r="D166" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="167" spans="2:17">
       <c r="D167" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="168" spans="2:17">
       <c r="D168" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="169" spans="2:17">
       <c r="D169" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="171" spans="2:17">
       <c r="B171" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="172" spans="2:17">
       <c r="C172" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L172" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="173" spans="2:17">
       <c r="D173" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M173" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="174" spans="2:17">
       <c r="D174" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M174" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="175" spans="2:17">
       <c r="D175" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M175" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="176" spans="2:17">
       <c r="D176" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="M176" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="177" spans="4:17">
       <c r="D177" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="M177" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="178" spans="4:17">
       <c r="D178" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M178" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="179" spans="4:17">
       <c r="D179" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M179" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="180" spans="4:17">
       <c r="D180" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M180" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="181" spans="4:17">
       <c r="D181" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M181" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="182" spans="4:17">
       <c r="D182" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M182" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="183" spans="4:17">
       <c r="D183" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M183" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="Q183" s="5" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
     </row>
     <row r="184" spans="4:17">
       <c r="D184" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M184" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="185" spans="4:17">
       <c r="D185" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="M185" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="186" spans="4:17">
       <c r="D186" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M186" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="187" spans="4:17">
       <c r="D187" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M187" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="188" spans="4:17">
       <c r="D188" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M188" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="189" spans="4:17">
       <c r="D189" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M189" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="190" spans="4:17">
       <c r="D190" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M190" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="191" spans="4:17">
       <c r="D191" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M191" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="192" spans="4:17">
       <c r="D192" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M192" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="193" spans="4:18">
       <c r="D193" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="M193" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="194" spans="4:18">
       <c r="D194" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M194" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="195" spans="4:18">
       <c r="D195" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M195" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="196" spans="4:18">
       <c r="D196" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M196" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="197" spans="4:18">
       <c r="D197" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M197" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="198" spans="4:18">
       <c r="D198" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M198" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="199" spans="4:18">
       <c r="D199" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M199" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="200" spans="4:18">
       <c r="D200" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="201" spans="4:18">
       <c r="D201" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="202" spans="4:18">
       <c r="D202" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M202" s="4" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="N202" s="4"/>
       <c r="O202" s="4"/>
@@ -8519,7 +8522,7 @@
     </row>
     <row r="203" spans="4:18">
       <c r="D203" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M203" s="4"/>
       <c r="N203" s="4"/>
@@ -8530,100 +8533,100 @@
     </row>
     <row r="204" spans="4:18">
       <c r="D204" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M204" s="5" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
     </row>
     <row r="205" spans="4:18">
       <c r="D205" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="206" spans="4:18">
       <c r="D206" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="207" spans="4:18">
       <c r="D207" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="208" spans="4:18">
       <c r="D208" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="209" spans="3:7">
       <c r="D209" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="210" spans="3:7">
       <c r="D210" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="211" spans="3:7">
       <c r="D211" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="212" spans="3:7">
       <c r="D212" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="213" spans="3:7">
       <c r="D213" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="214" spans="3:7">
       <c r="D214" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="215" spans="3:7">
       <c r="D215" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="216" spans="3:7">
       <c r="D216" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="217" spans="3:7">
       <c r="D217" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="218" spans="3:7">
       <c r="D218" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="219" spans="3:7">
       <c r="D219" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="220" spans="3:7">
       <c r="D220" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="221" spans="3:7">
       <c r="D221" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="224" spans="3:7">
       <c r="C224" s="4" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
@@ -8632,30 +8635,30 @@
     </row>
     <row r="225" spans="1:13">
       <c r="D225" s="4" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
     </row>
     <row r="228" spans="1:13">
       <c r="A228" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C228" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="229" spans="1:13">
       <c r="B229" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="230" spans="1:13">
       <c r="C230" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
@@ -8667,268 +8670,268 @@
     </row>
     <row r="233" spans="1:13">
       <c r="B233" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
     </row>
     <row r="234" spans="1:13">
       <c r="C234" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
     </row>
     <row r="236" spans="1:13">
       <c r="A236" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="237" spans="1:13">
       <c r="B237" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="238" spans="1:13">
       <c r="C238" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
     </row>
     <row r="239" spans="1:13">
       <c r="D239" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="240" spans="1:13">
       <c r="D240" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="241" spans="3:18">
       <c r="D241" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="242" spans="3:18">
       <c r="D242" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="243" spans="3:18">
       <c r="D243" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="244" spans="3:18">
       <c r="D244" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="245" spans="3:18">
       <c r="D245" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R245" s="5" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
     </row>
     <row r="246" spans="3:18">
       <c r="D246" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="248" spans="3:18">
       <c r="C248" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="249" spans="3:18">
       <c r="D249" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="250" spans="3:18">
       <c r="D250" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="251" spans="3:18">
       <c r="D251" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="252" spans="3:18">
       <c r="D252" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="253" spans="3:18">
       <c r="D253" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="254" spans="3:18">
       <c r="D254" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="255" spans="3:18">
       <c r="D255" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="257" spans="2:14">
       <c r="D257" s="4" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E257" s="4"/>
       <c r="F257" s="4"/>
     </row>
     <row r="258" spans="2:14">
       <c r="D258" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="259" spans="2:14">
       <c r="D259" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="262" spans="2:14">
       <c r="B262" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="263" spans="2:14">
       <c r="C263" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
     </row>
     <row r="264" spans="2:14">
       <c r="D264" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N264" s="5" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="265" spans="2:14">
       <c r="D265" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
     </row>
     <row r="266" spans="2:14">
       <c r="D266" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="267" spans="2:14">
       <c r="D267" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="268" spans="2:14">
       <c r="D268" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="269" spans="2:14">
       <c r="D269" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="270" spans="2:14">
       <c r="D270" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="271" spans="2:14">
       <c r="D271" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="272" spans="2:14">
       <c r="D272" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="273" spans="2:4">
       <c r="D273" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="275" spans="2:4">
       <c r="C275" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="276" spans="2:4">
       <c r="D276" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="277" spans="2:4">
       <c r="D277" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
     </row>
     <row r="278" spans="2:4">
       <c r="D278" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="279" spans="2:4">
       <c r="D279" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="280" spans="2:4">
       <c r="D280" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="281" spans="2:4">
       <c r="D281" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="282" spans="2:4">
       <c r="D282" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="283" spans="2:4">
       <c r="D283" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="284" spans="2:4">
       <c r="D284" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="285" spans="2:4">
       <c r="D285" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="286" spans="2:4">
       <c r="D286" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="288" spans="2:4">
       <c r="B288" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
     </row>
     <row r="289" spans="3:18">
       <c r="C289" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
     </row>
     <row r="290" spans="3:18">
       <c r="D290" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N290" s="4" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="O290" s="4"/>
       <c r="P290" s="4"/>
@@ -8937,115 +8940,115 @@
     </row>
     <row r="291" spans="3:18">
       <c r="D291" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
     </row>
     <row r="292" spans="3:18">
       <c r="D292" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="293" spans="3:18">
       <c r="D293" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="294" spans="3:18">
       <c r="D294" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="295" spans="3:18">
       <c r="D295" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="296" spans="3:18">
       <c r="D296" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
     </row>
     <row r="297" spans="3:18">
       <c r="D297" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
     </row>
     <row r="298" spans="3:18">
       <c r="D298" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="299" spans="3:18">
       <c r="D299" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="301" spans="3:18">
       <c r="C301" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="302" spans="3:18">
       <c r="D302" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="303" spans="3:18">
       <c r="D303" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
     </row>
     <row r="304" spans="3:18">
       <c r="D304" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="305" spans="2:23">
       <c r="D305" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="306" spans="2:23">
       <c r="D306" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="307" spans="2:23">
       <c r="D307" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="308" spans="2:23">
       <c r="D308" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
     </row>
     <row r="309" spans="2:23">
       <c r="D309" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="310" spans="2:23">
       <c r="D310" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
     </row>
     <row r="311" spans="2:23">
       <c r="D311" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="313" spans="2:23">
       <c r="B313" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
     </row>
     <row r="314" spans="2:23">
       <c r="C314" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="N314" s="4" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="O314" s="4"/>
       <c r="P314" s="4"/>
@@ -9059,10 +9062,10 @@
     </row>
     <row r="315" spans="2:23">
       <c r="D315" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="N315" s="4" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="O315" s="4"/>
       <c r="P315" s="4"/>
@@ -9076,120 +9079,120 @@
     </row>
     <row r="316" spans="2:23">
       <c r="D316" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="317" spans="2:23">
       <c r="D317" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="318" spans="2:23">
       <c r="D318" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
     </row>
     <row r="320" spans="2:23">
       <c r="C320" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="321" spans="2:4">
       <c r="D321" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
     </row>
     <row r="322" spans="2:4">
       <c r="D322" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="323" spans="2:4">
       <c r="D323" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="324" spans="2:4">
       <c r="D324" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="325" spans="2:4">
       <c r="D325" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="326" spans="2:4">
       <c r="D326" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="328" spans="2:4">
       <c r="B328" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
     </row>
     <row r="329" spans="2:4">
       <c r="C329" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
     </row>
     <row r="330" spans="2:4">
       <c r="D330" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="331" spans="2:4">
       <c r="D331" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
     </row>
     <row r="332" spans="2:4">
       <c r="D332" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
     </row>
     <row r="333" spans="2:4">
       <c r="D333" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
     </row>
     <row r="334" spans="2:4">
       <c r="D334" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="335" spans="2:4">
       <c r="D335" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="336" spans="2:4">
       <c r="D336" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="338" spans="2:18">
       <c r="C338" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="339" spans="2:18">
       <c r="D339" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="340" spans="2:18">
       <c r="D340" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
     </row>
     <row r="341" spans="2:18">
       <c r="D341" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="N341" s="4" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="O341" s="4"/>
       <c r="P341" s="4"/>
@@ -9198,257 +9201,257 @@
     </row>
     <row r="342" spans="2:18">
       <c r="D342" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
     </row>
     <row r="343" spans="2:18">
       <c r="D343" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="344" spans="2:18">
       <c r="D344" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="345" spans="2:18">
       <c r="D345" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="346" spans="2:18">
       <c r="D346" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="347" spans="2:18">
       <c r="D347" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="348" spans="2:18">
       <c r="D348" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="349" spans="2:18">
       <c r="D349" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="350" spans="2:18">
       <c r="D350" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="352" spans="2:18">
       <c r="B352" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
     </row>
     <row r="353" spans="3:4">
       <c r="C353" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
     </row>
     <row r="354" spans="3:4">
       <c r="D354" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="355" spans="3:4">
       <c r="D355" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
     </row>
     <row r="356" spans="3:4">
       <c r="D356" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
     </row>
     <row r="357" spans="3:4">
       <c r="D357" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="358" spans="3:4">
       <c r="D358" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="359" spans="3:4">
       <c r="D359" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="361" spans="3:4">
       <c r="C361" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="362" spans="3:4">
       <c r="D362" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="363" spans="3:4">
       <c r="D363" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
     </row>
     <row r="364" spans="3:4">
       <c r="D364" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
     </row>
     <row r="365" spans="3:4">
       <c r="D365" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="366" spans="3:4">
       <c r="D366" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="367" spans="3:4">
       <c r="D367" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="368" spans="3:4">
       <c r="D368" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="D369" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="D370" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="D371" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="D372" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="D373" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="B377" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="C378" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="D379" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="D380" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="D381" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="D382" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="D383" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="385" spans="3:14">
       <c r="D385" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="387" spans="3:14">
       <c r="C387" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="388" spans="3:14">
       <c r="D388" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="389" spans="3:14">
       <c r="D389" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
     </row>
     <row r="390" spans="3:14">
       <c r="D390" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
     </row>
     <row r="391" spans="3:14">
       <c r="D391" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="392" spans="3:14">
       <c r="D392" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="393" spans="3:14">
       <c r="D393" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="394" spans="3:14">
       <c r="D394" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="395" spans="3:14">
       <c r="D395" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="396" spans="3:14">
       <c r="D396" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="397" spans="3:14">
       <c r="D397" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="399" spans="3:14">
       <c r="D399" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E399" s="4"/>
       <c r="F399" s="4"/>
@@ -9460,7 +9463,7 @@
     </row>
     <row r="400" spans="3:14">
       <c r="D400" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E400" s="4"/>
       <c r="F400" s="4"/>
@@ -9470,7 +9473,7 @@
       <c r="J400" s="4"/>
       <c r="K400" s="4"/>
       <c r="N400" s="5" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="401" spans="1:13">
@@ -9485,7 +9488,7 @@
     </row>
     <row r="402" spans="1:13">
       <c r="D402" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E402" s="4"/>
       <c r="F402" s="4"/>
@@ -9497,7 +9500,7 @@
     </row>
     <row r="403" spans="1:13">
       <c r="D403" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E403" s="4"/>
       <c r="F403" s="4"/>
@@ -9509,602 +9512,602 @@
     </row>
     <row r="405" spans="1:13">
       <c r="D405" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="406" spans="1:13">
       <c r="D406" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="408" spans="1:13">
       <c r="D408" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="410" spans="1:13">
       <c r="A410" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="411" spans="1:13">
       <c r="B411" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
     </row>
     <row r="412" spans="1:13">
       <c r="C412" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L412" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="413" spans="1:13">
       <c r="D413" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M413" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="414" spans="1:13">
       <c r="D414" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M414" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="415" spans="1:13">
       <c r="D415" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M415" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="416" spans="1:13">
       <c r="D416" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M416" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="417" spans="4:19">
       <c r="D417" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M417" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="418" spans="4:19">
       <c r="D418" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M418" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="419" spans="4:19">
       <c r="D419" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M419" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="420" spans="4:19">
       <c r="D420" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M420" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="421" spans="4:19">
       <c r="D421" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M421" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="R421" s="4" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
     </row>
     <row r="422" spans="4:19">
       <c r="D422" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M422" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="R422" s="4" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="423" spans="4:19">
       <c r="D423" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M423" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="R423" s="4" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="S423" s="4"/>
     </row>
     <row r="424" spans="4:19">
       <c r="D424" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="M424" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="R424" s="4" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="S424" s="4"/>
     </row>
     <row r="425" spans="4:19">
       <c r="D425" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M425" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="426" spans="4:19">
       <c r="D426" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="M426" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="427" spans="4:19">
       <c r="D427" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M427" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="R427" s="4" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="S427" s="4"/>
     </row>
     <row r="428" spans="4:19">
       <c r="D428" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M428" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="R428" s="5" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
     </row>
     <row r="429" spans="4:19">
       <c r="D429" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M429" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="430" spans="4:19">
       <c r="D430" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M430" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="431" spans="4:19">
       <c r="D431" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M431" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="432" spans="4:19">
       <c r="D432" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M432" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="433" spans="4:13">
       <c r="D433" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M433" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="434" spans="4:13">
       <c r="D434" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M434" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="435" spans="4:13">
       <c r="D435" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="436" spans="4:13">
       <c r="D436" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="437" spans="4:13">
       <c r="D437" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="438" spans="4:13">
       <c r="D438" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="439" spans="4:13">
       <c r="D439" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="440" spans="4:13">
       <c r="D440" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="441" spans="4:13">
       <c r="D441" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="442" spans="4:13">
       <c r="D442" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="443" spans="4:13">
       <c r="D443" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="444" spans="4:13">
       <c r="D444" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="445" spans="4:13">
       <c r="D445" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="446" spans="4:13">
       <c r="D446" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="447" spans="4:13">
       <c r="D447" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="448" spans="4:13">
       <c r="D448" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="449" spans="2:13">
       <c r="D449" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="450" spans="2:13">
       <c r="D450" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="451" spans="2:13">
       <c r="D451" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="452" spans="2:13">
       <c r="D452" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="454" spans="2:13">
       <c r="B454" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
     </row>
     <row r="455" spans="2:13">
       <c r="C455" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L455" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="456" spans="2:13">
       <c r="D456" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M456" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="457" spans="2:13">
       <c r="D457" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="M457" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="458" spans="2:13">
       <c r="D458" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M458" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="459" spans="2:13">
       <c r="D459" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M459" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="460" spans="2:13">
       <c r="D460" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M460" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="461" spans="2:13">
       <c r="D461" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M461" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="462" spans="2:13">
       <c r="D462" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M462" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="463" spans="2:13">
       <c r="D463" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M463" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="464" spans="2:13">
       <c r="D464" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M464" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="465" spans="4:13">
       <c r="D465" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M465" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="466" spans="4:13">
       <c r="D466" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M466" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="467" spans="4:13">
       <c r="D467" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M467" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="468" spans="4:13">
       <c r="D468" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="M468" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="469" spans="4:13">
       <c r="D469" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M469" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="470" spans="4:13">
       <c r="D470" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M470" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="471" spans="4:13">
       <c r="D471" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M471" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="472" spans="4:13">
       <c r="D472" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M472" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="473" spans="4:13">
       <c r="D473" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M473" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="474" spans="4:13">
       <c r="D474" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M474" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="475" spans="4:13">
       <c r="D475" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M475" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="476" spans="4:13">
       <c r="D476" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M476" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="477" spans="4:13">
       <c r="D477" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M477" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="478" spans="4:13">
       <c r="D478" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M478" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="479" spans="4:13">
       <c r="D479" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M479" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="480" spans="4:13">
       <c r="D480" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M480" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="481" spans="4:22">
       <c r="D481" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M481" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="482" spans="4:22">
       <c r="D482" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M482" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="483" spans="4:22">
       <c r="D483" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M483" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="484" spans="4:22">
       <c r="D484" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M484" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="485" spans="4:22">
       <c r="D485" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M485" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="486" spans="4:22">
       <c r="D486" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M486" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="487" spans="4:22">
       <c r="D487" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="M487" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="488" spans="4:22">
       <c r="D488" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M488" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="Q488" s="4" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="R488" s="4"/>
       <c r="S488" s="4"/>
@@ -10113,13 +10116,13 @@
     </row>
     <row r="489" spans="4:22">
       <c r="D489" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M489" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q489" s="4" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="R489" s="4"/>
       <c r="S489" s="4"/>
@@ -10128,13 +10131,13 @@
     </row>
     <row r="490" spans="4:22">
       <c r="D490" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M490" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q490" s="4" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="R490" s="4"/>
       <c r="S490" s="4"/>
@@ -10144,29 +10147,29 @@
     </row>
     <row r="491" spans="4:22">
       <c r="D491" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M491" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="492" spans="4:22">
       <c r="D492" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M492" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="493" spans="4:22">
       <c r="D493" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M493" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Q493" s="4" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="R493" s="4"/>
       <c r="S493" s="4"/>
@@ -10176,14 +10179,14 @@
     </row>
     <row r="494" spans="4:22">
       <c r="D494" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M494" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Q494" s="4"/>
       <c r="R494" s="4" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="S494" s="4"/>
       <c r="T494" s="4"/>
@@ -10192,277 +10195,277 @@
     </row>
     <row r="495" spans="4:22">
       <c r="D495" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M495" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="496" spans="4:22">
       <c r="D496" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M496" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="497" spans="4:13">
       <c r="D497" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M497" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="498" spans="4:13">
       <c r="D498" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M498" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="499" spans="4:13">
       <c r="D499" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M499" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="500" spans="4:13">
       <c r="D500" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M500" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="501" spans="4:13">
       <c r="D501" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M501" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="502" spans="4:13">
       <c r="D502" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M502" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="503" spans="4:13">
       <c r="D503" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M503" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="504" spans="4:13">
       <c r="D504" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M504" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="505" spans="4:13">
       <c r="D505" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M505" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="506" spans="4:13">
       <c r="D506" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M506" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="507" spans="4:13">
       <c r="D507" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="508" spans="4:13">
       <c r="D508" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M508" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="509" spans="4:13">
       <c r="D509" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M509" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="510" spans="4:13">
       <c r="D510" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M510" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="511" spans="4:13">
       <c r="D511" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="512" spans="4:13">
       <c r="D512" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="513" spans="2:13">
       <c r="D513" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="514" spans="2:13">
       <c r="D514" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="515" spans="2:13">
       <c r="D515" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="516" spans="2:13">
       <c r="D516" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="518" spans="2:13">
       <c r="B518" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
     </row>
     <row r="519" spans="2:13">
       <c r="C519" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L519" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="520" spans="2:13">
       <c r="D520" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M520" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="521" spans="2:13">
       <c r="D521" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M521" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="522" spans="2:13">
       <c r="D522" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M522" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="523" spans="2:13">
       <c r="D523" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M523" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="524" spans="2:13">
       <c r="D524" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M524" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="525" spans="2:13">
       <c r="D525" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M525" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="526" spans="2:13">
       <c r="D526" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="M526" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="527" spans="2:13">
       <c r="D527" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="M527" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="528" spans="2:13">
       <c r="D528" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M528" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="529" spans="4:22">
       <c r="D529" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M529" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="530" spans="4:22">
       <c r="D530" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M530" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="531" spans="4:22">
       <c r="D531" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M531" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="532" spans="4:22">
       <c r="D532" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M532" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q532" s="4" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="R532" s="4"/>
       <c r="S532" s="4"/>
@@ -10472,13 +10475,13 @@
     </row>
     <row r="533" spans="4:22">
       <c r="D533" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M533" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="Q533" s="4" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="R533" s="4"/>
       <c r="S533" s="4"/>
@@ -10488,382 +10491,382 @@
     </row>
     <row r="534" spans="4:22">
       <c r="D534" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M534" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Q534" s="5" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
     </row>
     <row r="535" spans="4:22">
       <c r="D535" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M535" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="536" spans="4:22">
       <c r="D536" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M536" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="537" spans="4:22">
       <c r="D537" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M537" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="538" spans="4:22">
       <c r="D538" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M538" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="539" spans="4:22">
       <c r="D539" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M539" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="540" spans="4:22">
       <c r="D540" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M540" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="541" spans="4:22">
       <c r="D541" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M541" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="542" spans="4:22">
       <c r="D542" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M542" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="543" spans="4:22">
       <c r="D543" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M543" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="544" spans="4:22">
       <c r="D544" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M544" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="545" spans="4:13">
       <c r="D545" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="M545" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="546" spans="4:13">
       <c r="D546" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M546" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="547" spans="4:13">
       <c r="D547" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M547" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="548" spans="4:13">
       <c r="D548" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M548" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="549" spans="4:13">
       <c r="D549" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M549" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="550" spans="4:13">
       <c r="D550" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M550" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="551" spans="4:13">
       <c r="D551" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M551" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="552" spans="4:13">
       <c r="D552" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M552" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="553" spans="4:13">
       <c r="D553" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M553" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="554" spans="4:13">
       <c r="D554" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M554" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="555" spans="4:13">
       <c r="D555" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M555" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="556" spans="4:13">
       <c r="D556" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M556" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="557" spans="4:13">
       <c r="D557" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M557" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="558" spans="4:13">
       <c r="D558" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="559" spans="4:13">
       <c r="D559" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="560" spans="4:13">
       <c r="D560" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="561" spans="2:13">
       <c r="D561" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="562" spans="2:13">
       <c r="D562" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="563" spans="2:13">
       <c r="D563" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="564" spans="2:13">
       <c r="D564" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="565" spans="2:13">
       <c r="D565" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="566" spans="2:13">
       <c r="D566" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="568" spans="2:13">
       <c r="C568" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
     </row>
     <row r="569" spans="2:13">
       <c r="D569" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
     </row>
     <row r="571" spans="2:13">
       <c r="C571" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
     </row>
     <row r="572" spans="2:13">
       <c r="D572" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
     </row>
     <row r="574" spans="2:13">
       <c r="B574" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
     </row>
     <row r="575" spans="2:13">
       <c r="C575" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L575" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="576" spans="2:13">
       <c r="D576" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M576" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="577" spans="4:22">
       <c r="D577" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="M577" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="578" spans="4:22">
       <c r="D578" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M578" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="579" spans="4:22">
       <c r="D579" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M579" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="580" spans="4:22">
       <c r="D580" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M580" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="581" spans="4:22">
       <c r="D581" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M581" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="582" spans="4:22">
       <c r="D582" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M582" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="583" spans="4:22">
       <c r="D583" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M583" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="584" spans="4:22">
       <c r="D584" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M584" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="585" spans="4:22">
       <c r="D585" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M585" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="586" spans="4:22">
       <c r="D586" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M586" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="587" spans="4:22">
       <c r="D587" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M587" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="588" spans="4:22">
       <c r="D588" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M588" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="Q588" s="4" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="R588" s="4"/>
       <c r="S588" s="4"/>
@@ -10873,13 +10876,13 @@
     </row>
     <row r="589" spans="4:22">
       <c r="D589" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M589" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q589" s="4" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="R589" s="4"/>
       <c r="S589" s="4"/>
@@ -10889,13 +10892,13 @@
     </row>
     <row r="590" spans="4:22">
       <c r="D590" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M590" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="Q590" s="4" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="R590" s="4"/>
       <c r="S590" s="4"/>
@@ -10905,205 +10908,205 @@
     </row>
     <row r="591" spans="4:22">
       <c r="D591" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M591" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="592" spans="4:22">
       <c r="D592" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M592" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="593" spans="4:13">
       <c r="D593" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M593" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="594" spans="4:13">
       <c r="D594" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M594" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="595" spans="4:13">
       <c r="D595" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M595" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="596" spans="4:13">
       <c r="D596" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M596" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="597" spans="4:13">
       <c r="D597" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M597" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="598" spans="4:13">
       <c r="D598" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M598" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="599" spans="4:13">
       <c r="D599" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M599" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="600" spans="4:13">
       <c r="D600" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M600" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="601" spans="4:13">
       <c r="D601" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M601" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="602" spans="4:13">
       <c r="D602" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="M602" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="603" spans="4:13">
       <c r="D603" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M603" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="604" spans="4:13">
       <c r="D604" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M604" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="605" spans="4:13">
       <c r="D605" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M605" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="606" spans="4:13">
       <c r="D606" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M606" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="607" spans="4:13">
       <c r="D607" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M607" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="608" spans="4:13">
       <c r="D608" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M608" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="609" spans="4:22">
       <c r="D609" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M609" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="610" spans="4:22">
       <c r="D610" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M610" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="611" spans="4:22">
       <c r="D611" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M611" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="612" spans="4:22">
       <c r="D612" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M612" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="613" spans="4:22">
       <c r="D613" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M613" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="614" spans="4:22">
       <c r="D614" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M614" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="615" spans="4:22">
       <c r="D615" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M615" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="Q615" s="4" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="R615" s="4"/>
       <c r="S615" s="4"/>
@@ -11112,13 +11115,13 @@
     </row>
     <row r="616" spans="4:22">
       <c r="D616" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M616" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q616" s="4" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="R616" s="4"/>
       <c r="S616" s="4"/>
@@ -11127,13 +11130,13 @@
     </row>
     <row r="617" spans="4:22">
       <c r="D617" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M617" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="Q617" s="4" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="R617" s="4"/>
       <c r="S617" s="4"/>
@@ -11143,617 +11146,617 @@
     </row>
     <row r="618" spans="4:22">
       <c r="D618" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M618" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="619" spans="4:22">
       <c r="D619" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M619" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="620" spans="4:22">
       <c r="D620" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M620" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="Q620" s="5" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="621" spans="4:22">
       <c r="D621" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M621" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="622" spans="4:22">
       <c r="D622" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M622" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="623" spans="4:22">
       <c r="D623" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M623" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="624" spans="4:22">
       <c r="D624" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M624" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="625" spans="4:13">
       <c r="D625" t="s">
+        <v>180</v>
+      </c>
+      <c r="M625" t="s">
         <v>186</v>
-      </c>
-      <c r="M625" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="626" spans="4:13">
       <c r="D626" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M626" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="627" spans="4:13">
       <c r="D627" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M627" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="628" spans="4:13">
       <c r="D628" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M628" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="629" spans="4:13">
       <c r="D629" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M629" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="630" spans="4:13">
       <c r="D630" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M630" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="631" spans="4:13">
       <c r="D631" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M631" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="632" spans="4:13">
       <c r="D632" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M632" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="633" spans="4:13">
       <c r="D633" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M633" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="634" spans="4:13">
       <c r="D634" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M634" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="635" spans="4:13">
       <c r="D635" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="M635" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="636" spans="4:13">
       <c r="D636" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="637" spans="4:13">
       <c r="D637" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="638" spans="4:13">
       <c r="D638" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="639" spans="4:13">
       <c r="D639" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="640" spans="4:13">
       <c r="D640" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="641" spans="4:4">
       <c r="D641" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="642" spans="4:4">
       <c r="D642" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="643" spans="4:4">
       <c r="D643" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="644" spans="4:4">
       <c r="D644" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="645" spans="4:4">
       <c r="D645" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="646" spans="4:4">
       <c r="D646" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="647" spans="4:4">
       <c r="D647" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="648" spans="4:4">
       <c r="D648" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="649" spans="4:4">
       <c r="D649" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="650" spans="4:4">
       <c r="D650" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="651" spans="4:4">
       <c r="D651" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="652" spans="4:4">
       <c r="D652" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="653" spans="4:4">
       <c r="D653" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="654" spans="4:4">
       <c r="D654" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="655" spans="4:4">
       <c r="D655" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="656" spans="4:4">
       <c r="D656" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="657" spans="2:13">
       <c r="D657" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="658" spans="2:13">
       <c r="D658" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="659" spans="2:13">
       <c r="D659" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="660" spans="2:13">
       <c r="D660" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="661" spans="2:13">
       <c r="D661" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="662" spans="2:13">
       <c r="D662" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="663" spans="2:13">
       <c r="D663" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="664" spans="2:13">
       <c r="D664" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="666" spans="2:13">
       <c r="B666" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
     </row>
     <row r="667" spans="2:13">
       <c r="C667" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L667" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="668" spans="2:13">
       <c r="D668" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M668" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="669" spans="2:13">
       <c r="D669" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M669" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="670" spans="2:13">
       <c r="D670" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M670" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="671" spans="2:13">
       <c r="D671" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M671" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="672" spans="2:13">
       <c r="D672" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M672" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="673" spans="4:20">
       <c r="D673" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="M673" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="674" spans="4:20">
       <c r="D674" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="M674" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="675" spans="4:20">
       <c r="D675" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="M675" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="676" spans="4:20">
       <c r="D676" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M676" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="677" spans="4:20">
       <c r="D677" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M677" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="678" spans="4:20">
       <c r="D678" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M678" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="679" spans="4:20">
       <c r="D679" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M679" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="680" spans="4:20">
       <c r="D680" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M680" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="681" spans="4:20">
       <c r="D681" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M681" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="T681" s="5" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
     </row>
     <row r="682" spans="4:20">
       <c r="D682" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M682" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="683" spans="4:20">
       <c r="D683" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M683" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="684" spans="4:20">
       <c r="D684" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M684" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="685" spans="4:20">
       <c r="D685" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M685" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="686" spans="4:20">
       <c r="D686" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M686" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="687" spans="4:20">
       <c r="D687" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M687" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="688" spans="4:20">
       <c r="D688" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M688" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="689" spans="4:13">
       <c r="D689" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M689" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="690" spans="4:13">
       <c r="D690" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M690" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="691" spans="4:13">
       <c r="D691" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M691" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="692" spans="4:13">
       <c r="D692" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M692" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="693" spans="4:13">
       <c r="D693" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M693" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="694" spans="4:13">
       <c r="D694" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M694" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="695" spans="4:13">
       <c r="D695" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M695" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="696" spans="4:13">
       <c r="D696" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M696" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="697" spans="4:13">
       <c r="D697" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M697" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="698" spans="4:13">
       <c r="D698" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M698" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="699" spans="4:13">
       <c r="D699" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M699" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="700" spans="4:13">
       <c r="D700" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M700" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="701" spans="4:13">
       <c r="D701" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M701" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="702" spans="4:13">
       <c r="D702" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M702" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="703" spans="4:13">
       <c r="D703" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="M703" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="704" spans="4:13">
       <c r="D704" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M704" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="705" spans="4:26">
       <c r="D705" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M705" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="T705" s="4" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="U705" s="4"/>
       <c r="V705" s="4"/>
@@ -11764,221 +11767,221 @@
     </row>
     <row r="706" spans="4:26">
       <c r="D706" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M706" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="707" spans="4:26">
       <c r="D707" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M707" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="708" spans="4:26">
       <c r="D708" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M708" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="709" spans="4:26">
       <c r="D709" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M709" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="710" spans="4:26">
       <c r="D710" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M710" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="711" spans="4:26">
       <c r="D711" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M711" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="712" spans="4:26">
       <c r="D712" t="s">
+        <v>233</v>
+      </c>
+      <c r="M712" t="s">
         <v>239</v>
-      </c>
-      <c r="M712" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="713" spans="4:26">
       <c r="D713" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M713" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="714" spans="4:26">
       <c r="D714" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M714" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="715" spans="4:26">
       <c r="D715" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M715" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="716" spans="4:26">
       <c r="D716" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M716" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="717" spans="4:26">
       <c r="D717" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M717" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="718" spans="4:26">
       <c r="D718" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M718" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="719" spans="4:26">
       <c r="D719" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M719" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="720" spans="4:26">
       <c r="D720" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M720" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="721" spans="4:25">
       <c r="D721" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M721" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="722" spans="4:25">
       <c r="D722" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M722" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="723" spans="4:25">
       <c r="D723" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M723" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="724" spans="4:25">
       <c r="D724" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M724" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="725" spans="4:25">
       <c r="D725" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M725" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="726" spans="4:25">
       <c r="D726" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M726" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="727" spans="4:25">
       <c r="D727" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M727" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="728" spans="4:25">
       <c r="D728" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M728" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="729" spans="4:25">
       <c r="D729" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M729" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="730" spans="4:25">
       <c r="D730" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M730" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="731" spans="4:25">
       <c r="D731" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M731" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="732" spans="4:25">
       <c r="D732" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M732" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="T732" s="4" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="U732" s="4"/>
       <c r="V732" s="4"/>
@@ -11988,189 +11991,189 @@
     </row>
     <row r="733" spans="4:25">
       <c r="D733" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M733" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="734" spans="4:25">
       <c r="D734" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M734" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="735" spans="4:25">
       <c r="D735" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M735" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="736" spans="4:25">
       <c r="D736" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M736" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="737" spans="4:13">
       <c r="D737" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M737" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="738" spans="4:13">
       <c r="D738" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M738" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="739" spans="4:13">
       <c r="D739" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M739" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="740" spans="4:13">
       <c r="D740" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M740" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="741" spans="4:13">
       <c r="D741" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M741" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="742" spans="4:13">
       <c r="D742" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M742" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="743" spans="4:13">
       <c r="D743" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M743" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="744" spans="4:13">
       <c r="D744" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M744" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="745" spans="4:13">
       <c r="D745" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M745" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="746" spans="4:13">
       <c r="D746" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M746" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="747" spans="4:13">
       <c r="D747" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M747" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="748" spans="4:13">
       <c r="D748" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="M748" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="749" spans="4:13">
       <c r="D749" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M749" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="750" spans="4:13">
       <c r="D750" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M750" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="751" spans="4:13">
       <c r="D751" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M751" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="752" spans="4:13">
       <c r="D752" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M752" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="753" spans="4:23">
       <c r="D753" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M753" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="754" spans="4:23">
       <c r="D754" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M754" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="755" spans="4:23">
       <c r="D755" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M755" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="R755" s="4" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="S755" s="4"/>
       <c r="T755" s="4"/>
@@ -12180,13 +12183,13 @@
     </row>
     <row r="756" spans="4:23">
       <c r="D756" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M756" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="R756" s="4" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="S756" s="4"/>
       <c r="T756" s="4"/>
@@ -12196,1062 +12199,1062 @@
     </row>
     <row r="757" spans="4:23">
       <c r="D757" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M757" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="R757" s="5" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
     </row>
     <row r="758" spans="4:23">
       <c r="D758" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M758" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="759" spans="4:23">
       <c r="D759" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M759" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="760" spans="4:23">
       <c r="D760" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M760" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="761" spans="4:23">
       <c r="D761" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M761" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="762" spans="4:23">
       <c r="D762" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M762" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="763" spans="4:23">
       <c r="D763" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M763" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="764" spans="4:23">
       <c r="D764" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M764" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="765" spans="4:23">
       <c r="D765" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M765" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="766" spans="4:23">
       <c r="D766" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M766" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="767" spans="4:23">
       <c r="D767" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M767" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="768" spans="4:23">
       <c r="D768" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M768" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="769" spans="4:13">
       <c r="D769" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M769" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="770" spans="4:13">
       <c r="D770" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M770" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="771" spans="4:13">
       <c r="D771" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M771" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="772" spans="4:13">
       <c r="D772" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M772" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="773" spans="4:13">
       <c r="D773" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M773" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="774" spans="4:13">
       <c r="D774" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M774" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="775" spans="4:13">
       <c r="D775" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M775" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="776" spans="4:13">
       <c r="D776" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M776" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="777" spans="4:13">
       <c r="D777" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M777" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="778" spans="4:13">
       <c r="D778" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M778" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="779" spans="4:13">
       <c r="D779" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M779" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="780" spans="4:13">
       <c r="D780" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M780" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="781" spans="4:13">
       <c r="D781" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="782" spans="4:13">
       <c r="D782" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="783" spans="4:13">
       <c r="D783" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="784" spans="4:13">
       <c r="D784" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="785" spans="4:4">
       <c r="D785" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="786" spans="4:4">
       <c r="D786" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="787" spans="4:4">
       <c r="D787" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="788" spans="4:4">
       <c r="D788" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="789" spans="4:4">
       <c r="D789" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="790" spans="4:4">
       <c r="D790" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="791" spans="4:4">
       <c r="D791" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="792" spans="4:4">
       <c r="D792" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="793" spans="4:4">
       <c r="D793" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="794" spans="4:4">
       <c r="D794" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="795" spans="4:4">
       <c r="D795" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="796" spans="4:4">
       <c r="D796" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="797" spans="4:4">
       <c r="D797" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="798" spans="4:4">
       <c r="D798" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="799" spans="4:4">
       <c r="D799" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="800" spans="4:4">
       <c r="D800" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="801" spans="4:4">
       <c r="D801" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="802" spans="4:4">
       <c r="D802" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="803" spans="4:4">
       <c r="D803" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="804" spans="4:4">
       <c r="D804" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="805" spans="4:4">
       <c r="D805" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="806" spans="4:4">
       <c r="D806" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="807" spans="4:4">
       <c r="D807" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="808" spans="4:4">
       <c r="D808" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="809" spans="4:4">
       <c r="D809" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="810" spans="4:4">
       <c r="D810" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="811" spans="4:4">
       <c r="D811" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="812" spans="4:4">
       <c r="D812" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="813" spans="4:4">
       <c r="D813" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="814" spans="4:4">
       <c r="D814" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="815" spans="4:4">
       <c r="D815" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="816" spans="4:4">
       <c r="D816" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="817" spans="4:4">
       <c r="D817" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="818" spans="4:4">
       <c r="D818" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="819" spans="4:4">
       <c r="D819" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="820" spans="4:4">
       <c r="D820" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="821" spans="4:4">
       <c r="D821" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="822" spans="4:4">
       <c r="D822" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="823" spans="4:4">
       <c r="D823" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="824" spans="4:4">
       <c r="D824" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="825" spans="4:4">
       <c r="D825" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="826" spans="4:4">
       <c r="D826" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="827" spans="4:4">
       <c r="D827" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="828" spans="4:4">
       <c r="D828" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="829" spans="4:4">
       <c r="D829" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="830" spans="4:4">
       <c r="D830" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="831" spans="4:4">
       <c r="D831" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="832" spans="4:4">
       <c r="D832" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="833" spans="1:4">
       <c r="D833" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="834" spans="1:4">
       <c r="D834" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="835" spans="1:4">
       <c r="D835" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="836" spans="1:4">
       <c r="D836" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="838" spans="1:4">
       <c r="A838" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
     </row>
     <row r="839" spans="1:4">
       <c r="B839" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="840" spans="1:4">
       <c r="D840" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="842" spans="1:4">
       <c r="D842" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="844" spans="1:4">
       <c r="D844" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="845" spans="1:4">
       <c r="D845" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="847" spans="1:4">
       <c r="D847" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="848" spans="1:4">
       <c r="D848" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="849" spans="4:4">
       <c r="D849" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="850" spans="4:4">
       <c r="D850" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="852" spans="4:4">
       <c r="D852" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="853" spans="4:4">
       <c r="D853" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="854" spans="4:4">
       <c r="D854" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="856" spans="4:4">
       <c r="D856" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="857" spans="4:4">
       <c r="D857" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="858" spans="4:4">
       <c r="D858" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="859" spans="4:4">
       <c r="D859" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="860" spans="4:4">
       <c r="D860" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="861" spans="4:4">
       <c r="D861" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="862" spans="4:4">
       <c r="D862" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="863" spans="4:4">
       <c r="D863" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="865" spans="2:4">
       <c r="D865" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="868" spans="2:4">
       <c r="B868" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
     </row>
     <row r="869" spans="2:4">
       <c r="D869" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="870" spans="2:4">
       <c r="D870" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="871" spans="2:4">
       <c r="D871" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
     </row>
     <row r="872" spans="2:4">
       <c r="D872" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="874" spans="2:4">
       <c r="D874" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="875" spans="2:4">
       <c r="D875" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="877" spans="2:4">
       <c r="D877" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="878" spans="2:4">
       <c r="D878" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="880" spans="2:4">
       <c r="D880" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="881" spans="4:4">
       <c r="D881" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="882" spans="4:4">
       <c r="D882" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="883" spans="4:4">
       <c r="D883" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="884" spans="4:4">
       <c r="D884" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="885" spans="4:4">
       <c r="D885" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="886" spans="4:4">
       <c r="D886" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="887" spans="4:4">
       <c r="D887" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="888" spans="4:4">
       <c r="D888" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="889" spans="4:4">
       <c r="D889" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="890" spans="4:4">
       <c r="D890" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="891" spans="4:4">
       <c r="D891" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="893" spans="4:4">
       <c r="D893" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="894" spans="4:4">
       <c r="D894" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="895" spans="4:4">
       <c r="D895" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="896" spans="4:4">
       <c r="D896" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="897" spans="4:4">
       <c r="D897" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="898" spans="4:4">
       <c r="D898" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="899" spans="4:4">
       <c r="D899" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="900" spans="4:4">
       <c r="D900" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="902" spans="4:4">
       <c r="D902" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="903" spans="4:4">
       <c r="D903" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="904" spans="4:4">
       <c r="D904" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="906" spans="4:4">
       <c r="D906" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="907" spans="4:4">
       <c r="D907" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="908" spans="4:4">
       <c r="D908" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
     </row>
     <row r="909" spans="4:4">
       <c r="D909" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="911" spans="4:4">
       <c r="D911" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="912" spans="4:4">
       <c r="D912" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="914" spans="4:4">
       <c r="D914" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="915" spans="4:4">
       <c r="D915" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="917" spans="4:4">
       <c r="D917" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="918" spans="4:4">
       <c r="D918" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="919" spans="4:4">
       <c r="D919" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="920" spans="4:4">
       <c r="D920" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="921" spans="4:4">
       <c r="D921" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="922" spans="4:4">
       <c r="D922" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="923" spans="4:4">
       <c r="D923" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="924" spans="4:4">
       <c r="D924" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="925" spans="4:4">
       <c r="D925" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="926" spans="4:4">
       <c r="D926" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="927" spans="4:4">
       <c r="D927" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="928" spans="4:4">
       <c r="D928" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="930" spans="4:4">
       <c r="D930" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="931" spans="4:4">
       <c r="D931" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="932" spans="4:4">
       <c r="D932" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="933" spans="4:4">
       <c r="D933" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="934" spans="4:4">
       <c r="D934" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="935" spans="4:4">
       <c r="D935" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="936" spans="4:4">
       <c r="D936" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="937" spans="4:4">
       <c r="D937" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="939" spans="4:4">
       <c r="D939" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="940" spans="4:4">
       <c r="D940" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="941" spans="4:4">
       <c r="D941" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="943" spans="4:4">
       <c r="D943" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="944" spans="4:4">
       <c r="D944" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="945" spans="4:4">
       <c r="D945" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
     </row>
     <row r="946" spans="4:4">
       <c r="D946" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="948" spans="4:4">
       <c r="D948" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="949" spans="4:4">
       <c r="D949" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="951" spans="4:4">
       <c r="D951" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="952" spans="4:4">
       <c r="D952" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="954" spans="4:4">
       <c r="D954" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="955" spans="4:4">
       <c r="D955" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="956" spans="4:4">
       <c r="D956" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="957" spans="4:4">
       <c r="D957" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="958" spans="4:4">
       <c r="D958" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="959" spans="4:4">
       <c r="D959" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="960" spans="4:4">
       <c r="D960" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="961" spans="4:4">
       <c r="D961" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="962" spans="4:4">
       <c r="D962" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="963" spans="4:4">
       <c r="D963" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="964" spans="4:4">
       <c r="D964" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="965" spans="4:4">
       <c r="D965" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="967" spans="4:4">
       <c r="D967" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="968" spans="4:4">
       <c r="D968" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="969" spans="4:4">
       <c r="D969" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="970" spans="4:4">
       <c r="D970" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="971" spans="4:4">
       <c r="D971" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="972" spans="4:4">
       <c r="D972" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="973" spans="4:4">
       <c r="D973" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="974" spans="4:4">
       <c r="D974" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="976" spans="4:4">
       <c r="D976" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="977" spans="1:4">
       <c r="D977" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="978" spans="1:4">
       <c r="D978" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="980" spans="1:4">
       <c r="A980" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -13264,25 +13267,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A35:K109"/>
+  <dimension ref="A35:Q101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="B36" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -13293,10 +13296,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:17">
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:17">
       <c r="C39" t="s">
         <v>1</v>
       </c>
@@ -13307,10 +13310,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:17">
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:17">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -13321,267 +13324,281 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:17">
       <c r="B43" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>357</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="M44" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+    </row>
+    <row r="45" spans="1:17">
       <c r="C45" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="M45" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+    </row>
+    <row r="46" spans="1:17">
       <c r="C46" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="M46" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+    </row>
+    <row r="47" spans="1:17">
       <c r="C47" t="s">
         <v>7</v>
       </c>
-      <c r="K47" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="M47" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+    </row>
+    <row r="48" spans="1:17">
       <c r="C48" t="s">
-        <v>389</v>
-      </c>
-      <c r="K48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11">
+        <v>383</v>
+      </c>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+    </row>
+    <row r="49" spans="2:12">
       <c r="C49" t="s">
         <v>8</v>
       </c>
-      <c r="K49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11">
+    </row>
+    <row r="52" spans="2:12">
       <c r="B52" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12">
       <c r="C53" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:12">
       <c r="C54" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:12">
       <c r="C56" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:12">
       <c r="B59" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12">
       <c r="C60" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" t="s">
+        <v>717</v>
+      </c>
+      <c r="L60" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:12">
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:12">
       <c r="C62" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11">
+        <v>717</v>
+      </c>
+      <c r="L62" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12">
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:12">
       <c r="C64" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" t="s">
-        <v>17</v>
+        <v>717</v>
+      </c>
+      <c r="L64" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="B67" t="s">
-        <v>396</v>
+        <v>718</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="C68" t="s">
-        <v>400</v>
+        <v>722</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="D69" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="2:4">
       <c r="D70" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="D71" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="D72" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="D73" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="2:4">
       <c r="D75" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="D76" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="2:4">
       <c r="D78" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="D79" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="81" spans="3:4">
       <c r="D81" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="3:4">
       <c r="D82" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="3:4">
       <c r="C84" t="s">
-        <v>395</v>
+        <v>719</v>
       </c>
     </row>
     <row r="85" spans="3:4">
       <c r="D85" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="3:4">
       <c r="D86" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="3:4">
       <c r="D87" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="3:4">
       <c r="D88" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89" spans="3:4">
       <c r="D89" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="3:4">
       <c r="D91" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="3:4">
       <c r="D92" t="s">
-        <v>398</v>
+        <v>720</v>
       </c>
     </row>
     <row r="94" spans="3:4">
       <c r="D94" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="3:4">
       <c r="D95" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
       <c r="D97" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
       <c r="D98" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="B100" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="C101" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="B105" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="B106" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="C107" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="D109" t="s">
-        <v>28</v>
-      </c>
-      <c r="F109" t="s">
-        <v>9</v>
-      </c>
-      <c r="G109" t="s">
-        <v>401</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="C101" s="5" t="s">
+        <v>724</v>
       </c>
     </row>
   </sheetData>
